--- a/admin/Timesheets/Caroline Chang/Week 6 Timesheet.xlsx
+++ b/admin/Timesheets/Caroline Chang/Week 6 Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\CSCI_Classes\CSCI4308\capstone_proj\admin\Timesheets\Caroline Chang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B05047F-C430-4EE2-89D8-42BE0957CDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBCF236-4A1E-4EC3-9061-F40AC1F565CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2652" yWindow="1956" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A4:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,25 +448,25 @@
         <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>44844</v>
+        <v>44851</v>
       </c>
       <c r="C5" s="3">
-        <v>44845</v>
+        <v>44852</v>
       </c>
       <c r="D5" s="3">
-        <v>44846</v>
+        <v>44853</v>
       </c>
       <c r="E5" s="3">
-        <v>44847</v>
+        <v>44854</v>
       </c>
       <c r="F5" s="3">
-        <v>44848</v>
+        <v>44855</v>
       </c>
       <c r="G5" s="3">
-        <v>44849</v>
+        <v>44856</v>
       </c>
       <c r="H5" s="3">
-        <v>44850</v>
+        <v>44857</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>9</v>
@@ -499,7 +499,12 @@
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -516,7 +521,12 @@
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -538,13 +548,15 @@
         <v>2</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1">
+        <v>1.5</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1">
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>

--- a/admin/Timesheets/Caroline Chang/Week 6 Timesheet.xlsx
+++ b/admin/Timesheets/Caroline Chang/Week 6 Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\CSCI_Classes\CSCI4308\capstone_proj\admin\Timesheets\Caroline Chang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBCF236-4A1E-4EC3-9061-F40AC1F565CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FF41B7-A2C6-4C26-B8A6-304F2302CBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="1956" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2652" yWindow="1956" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -57,16 +57,13 @@
     <t>Weekly Total</t>
   </si>
   <si>
-    <t>Work Emails</t>
-  </si>
-  <si>
     <t>Requirements Doc</t>
   </si>
   <si>
-    <t>External Meetings</t>
-  </si>
-  <si>
     <t>Mentor Meeting</t>
+  </si>
+  <si>
+    <t>Client Status</t>
   </si>
 </sst>
 </file>
@@ -421,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:K13"/>
+  <dimension ref="A4:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,7 +505,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0.5</v>
@@ -519,7 +516,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -530,32 +527,26 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B12" s="1">
         <v>2</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
         <v>1.5</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1">
         <v>3.5</v>
       </c>
     </row>
